--- a/tracking_tables.xlsx
+++ b/tracking_tables.xlsx
@@ -1,29 +1,154 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itayk\Documents\dev\c#\Josef_Baron\program-design-h.w-2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50AEA94-0EED-40C9-AB37-CAF458E4F310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="33">
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>num %10== x</t>
+  </si>
+  <si>
+    <t>num == 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">way in return </t>
+  </si>
+  <si>
+    <t>way out return</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>final - output</t>
+  </si>
+  <si>
+    <t>….</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>k== a.length - 1</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstCheck(x, num / 10) </t>
+  </si>
+  <si>
+    <t>n&lt;k</t>
+  </si>
+  <si>
+    <t>n == k</t>
+  </si>
+  <si>
+    <t>final output</t>
+  </si>
+  <si>
+    <t>k==1</t>
+  </si>
+  <si>
+    <t>CheckDiv(n, k)</t>
+  </si>
+  <si>
+    <t>a[n]</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>checkPrime(a[n],a[n-1])</t>
+  </si>
+  <si>
+    <t>4 - is not prime</t>
+  </si>
+  <si>
+    <t>6 - is not prime</t>
+  </si>
+  <si>
+    <t>9 - is not prime</t>
+  </si>
+  <si>
+    <t>10 - is not prime</t>
+  </si>
+  <si>
+    <t>12 - is not prime</t>
+  </si>
+  <si>
+    <t>13 - is prime</t>
+  </si>
+  <si>
+    <t>5 - is prime</t>
+  </si>
+  <si>
+    <t>2 - is prime</t>
+  </si>
+  <si>
+    <t>3 - is prime</t>
+  </si>
+  <si>
+    <t>11 - is prime</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -49,13 +174,149 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="44">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -66,6 +327,403 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>24094</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>173183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>612828</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>126641</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88AC6EFF-AB10-45E4-968E-A97ED28FF511}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6766137" y="173183"/>
+          <a:ext cx="6717865" cy="7763958"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>369631</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85951</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>374166</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>181773</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E3752B6-270B-4DFE-A6B6-2EC9704B079E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12627892" y="85951"/>
+          <a:ext cx="8891774" cy="4096322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>448164</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F00E89D-EEA6-416F-A21D-490DDB5D2989}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="571500"/>
+          <a:ext cx="3505689" cy="2524477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>896466</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>181271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44F43B40-C8F8-4D76-93A8-6399D4D79CF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5210175" y="533400"/>
+          <a:ext cx="3000794" cy="2124371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>579574</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>181267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CDFF1BD-E791-4C7D-820E-12376E3F80BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8124825" y="561975"/>
+          <a:ext cx="2913199" cy="2095792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>801764</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{274599C4-24ED-4A8B-AEB6-829B7711209C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10877550" y="533400"/>
+          <a:ext cx="3522186" cy="1276528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE31AC3-2719-4E8B-A547-DEE4700F7F5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2865082"/>
+          <a:ext cx="8220075" cy="3517398"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3006845-BE2E-407E-80E5-C2D89E814DCE}" name="Table1" displayName="Table1" ref="W23:AC31" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="W23:AC31" xr:uid="{2DD0A4C5-FE0E-46B2-A46F-209E14B3D584}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{BBC26616-07B1-4F89-836E-DE90DC98CC8D}" name="way in return " dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{A95CF8FA-116B-42BC-8D5C-2E9F840C2A7C}" name="way out return" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{7A3D3C2C-BF6B-4A8F-A31A-5443534D07E9}" name="x" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{D34B628F-6EFD-48DF-A704-C6301814E43C}" name="num" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{D8CB43B7-8F05-489E-95DE-929349D0DED9}" name="num %10== x" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{F7505246-5FD6-4722-A628-7D3EFFC93A49}" name="num == 0" dataDxfId="39"/>
+    <tableColumn id="14" xr3:uid="{A1C468CF-44A2-490E-AB58-524D99142D38}" name="final - output" dataDxfId="35"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D2538C69-7DA0-46DE-80FF-21BB3D373552}" name="Table2" displayName="Table2" ref="W33:AC45" totalsRowShown="0" headerRowDxfId="26" dataDxfId="27">
+  <autoFilter ref="W33:AC45" xr:uid="{8BC88683-DB27-4003-AC36-DB5B0B7BED14}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F0003DB1-1D3F-4D29-B14C-5299BF5F8A43}" name="way in return " dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{D6AFACCB-5FFA-47FB-B8B3-723A9A8E5724}" name="way out return" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{18BF5EA2-7C4F-4D6D-A393-8C75C297A8B9}" name="a" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{FDDC3A04-9D7A-40D9-8DE2-061832C0FC20}" name="k" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{9ADF7E70-ED7F-4538-88BF-76C5B72F6D70}" name="k== a.length - 1" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{BD7C0992-8F68-4DBC-A2CF-BA7ABF692DF6}" name="FirstCheck(x, num / 10) " dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{3364A6E8-4967-41F4-B90A-6F4323EA117B}" name="final - output" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9BF24C51-FED9-4E38-ADF5-8E661701F830}" name="Table3" displayName="Table3" ref="N16:T22" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="N16:T22" xr:uid="{C74317DD-C71E-4A38-95BD-D76CCB7A557C}"/>
+  <tableColumns count="7">
+    <tableColumn id="11" xr3:uid="{224729A1-A425-45DA-AC86-015AA03E6D95}" name="way in return " dataDxfId="25"/>
+    <tableColumn id="12" xr3:uid="{75709B9F-3A1F-48F0-B5EC-5E1C879C22C0}" name="way out return" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{A68A2E43-8A30-41BD-AC2B-77E7BD20559B}" name="n" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{1BCAAF84-F0F0-410F-924A-D3BB77E99C9C}" name="k" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{0CE9F502-FA61-47E3-B926-41575FFF455D}" name="n&lt;k" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{B990108A-5F9A-442E-ACCC-B0F568F80E75}" name="n == k" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{ACADF1A2-58F3-436E-BC79-3723BE6E01CF}" name="final output" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0B63A9F-E023-4A3F-B92B-E85C4580CB2C}" name="Table4" displayName="Table4" ref="N25:T35" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="N25:T35" xr:uid="{649EA836-B158-4501-B9B7-7A083E744ACF}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{2F25F909-1893-454A-8351-6D88651B7E20}" name="way in return " dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{AC04ACCB-5B7F-4686-8DB7-1315E5C66C71}" name="way out return" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{C1310840-E364-484D-A35E-12B57D42F30B}" name="n" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{37E1B357-F03E-46CE-B08C-B9F9870F66FE}" name="k" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{26B622B7-E6DD-4675-9275-984E6A1990C7}" name="CheckDiv(n, k)" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{1F65596E-D8F6-43B3-B8CE-0CD52744DCB8}" name="k==1" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{6E83AF33-2EA9-4903-9951-26157DD7EFAD}" name="final output" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7769908A-CD5B-4B7B-9A64-2954150DDD87}" name="Table46" displayName="Table46" ref="N37:S59" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="N37:S59" xr:uid="{3C309C2F-5B4F-4878-ADB2-2427CB4B7499}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{9C32E65E-0132-4756-94AA-01C56A0F9C78}" name="way in return " dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A723A41F-A1A7-48FF-ACFE-6A1752CA10BA}" name="way out return" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{4F5048BF-B7F4-47EF-82CE-9701E764E20B}" name="a[n]" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{1E3343C0-E197-4677-860A-AB52EEC39CA1}" name="n" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{8118E620-4F27-4D89-AACA-E0139106E1C8}" name="checkPrime(a[n],a[n-1])" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{B9ACBA1E-BA63-466D-9477-B2E73DAC4C6A}" name="output" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +988,1554 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="W23:AC55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="G18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U51" sqref="U51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="23" max="28" width="15.7109375" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" customWidth="1"/>
+    <col min="30" max="31" width="9.7109375" customWidth="1"/>
+    <col min="32" max="35" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="23" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>479</v>
+      </c>
+      <c r="AA24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>47</v>
+      </c>
+      <c r="AA25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>47</v>
+      </c>
+      <c r="AA29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>479</v>
+      </c>
+      <c r="AA30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC31" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+    </row>
+    <row r="33" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W39" s="1">
+        <v>1</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W40" s="1">
+        <v>1</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X41" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X42" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X43" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X44" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+    </row>
+    <row r="47" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+    </row>
+    <row r="48" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+    </row>
+    <row r="49" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+    </row>
+    <row r="50" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+    </row>
+    <row r="51" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+    </row>
+    <row r="52" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+    </row>
+    <row r="53" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+    </row>
+    <row r="54" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+    </row>
+    <row r="55" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1092726-912B-4CD0-8E09-A0B8E890167F}">
+  <dimension ref="N16:T59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T48" sqref="T48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="18" width="15.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" customWidth="1"/>
+    <col min="20" max="21" width="11" customWidth="1"/>
+    <col min="22" max="22" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="16" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P17" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>5</v>
+      </c>
+      <c r="R17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P18" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>5</v>
+      </c>
+      <c r="R18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P19" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>5</v>
+      </c>
+      <c r="R19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>5</v>
+      </c>
+      <c r="R20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>5</v>
+      </c>
+      <c r="R21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P26" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>5</v>
+      </c>
+      <c r="R26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P27" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>4</v>
+      </c>
+      <c r="R27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P28" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>3</v>
+      </c>
+      <c r="R28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P29" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>2</v>
+      </c>
+      <c r="R29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P30" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>1</v>
+      </c>
+      <c r="R30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>2</v>
+      </c>
+      <c r="R31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>3</v>
+      </c>
+      <c r="R32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>4</v>
+      </c>
+      <c r="R33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P34" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>5</v>
+      </c>
+      <c r="R34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T35" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T37" s="1"/>
+    </row>
+    <row r="38" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P38" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>9</v>
+      </c>
+      <c r="R38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T38" s="1"/>
+    </row>
+    <row r="39" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P39" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>8</v>
+      </c>
+      <c r="R39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T39" s="1"/>
+    </row>
+    <row r="40" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P40" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>7</v>
+      </c>
+      <c r="R40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T40" s="1"/>
+    </row>
+    <row r="41" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P41" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>6</v>
+      </c>
+      <c r="R41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T41" s="1"/>
+    </row>
+    <row r="42" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P42" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>5</v>
+      </c>
+      <c r="R42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P43" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>4</v>
+      </c>
+      <c r="R43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T43" s="1"/>
+    </row>
+    <row r="44" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P44" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>3</v>
+      </c>
+      <c r="R44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T44" s="1"/>
+    </row>
+    <row r="45" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P45" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>2</v>
+      </c>
+      <c r="R45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T45" s="1"/>
+    </row>
+    <row r="46" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P46" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>1</v>
+      </c>
+      <c r="R46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T46" s="1"/>
+    </row>
+    <row r="47" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P47" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T47" s="1"/>
+    </row>
+    <row r="48" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P49" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T49" s="1"/>
+    </row>
+    <row r="50" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P50" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>1</v>
+      </c>
+      <c r="R50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P51" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>2</v>
+      </c>
+      <c r="R51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P52" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>3</v>
+      </c>
+      <c r="R52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P53" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>4</v>
+      </c>
+      <c r="R53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P54" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>5</v>
+      </c>
+      <c r="R54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P55" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>6</v>
+      </c>
+      <c r="R55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P56" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>7</v>
+      </c>
+      <c r="R56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P57" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>8</v>
+      </c>
+      <c r="R57" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P58" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>9</v>
+      </c>
+      <c r="R58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/tracking_tables.xlsx
+++ b/tracking_tables.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itayk\Documents\dev\c#\Josef_Baron\program-design-h.w-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50AEA94-0EED-40C9-AB37-CAF458E4F310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CE19F9-40A2-4F38-BB40-93D4E6B264EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="75">
   <si>
     <t>x</t>
   </si>
@@ -133,13 +134,139 @@
   </si>
   <si>
     <t>11 - is prime</t>
+  </si>
+  <si>
+    <t>que</t>
+  </si>
+  <si>
+    <t>[5,2,13,54]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>que =       [ [5,2,13,54] , [] , [841,27,500] , [12] , [7,2,4,3,11] , [8,5] ]</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>head-----------------------------------------------------------------------tail</t>
+  </si>
+  <si>
+    <t>! q.isEmpty()</t>
+  </si>
+  <si>
+    <t>count != 0</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[] , [841,27,500] , [12] , [7,2,4,3,11] , [8,5] ]</t>
+  </si>
+  <si>
+    <t>[2,13,54]</t>
+  </si>
+  <si>
+    <t>[13,54]</t>
+  </si>
+  <si>
+    <t>[54]</t>
+  </si>
+  <si>
+    <t>qNew</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[841,27,500] , [12] , [7,2,4,3,11] , [8,5] ]</t>
+  </si>
+  <si>
+    <t>while status</t>
+  </si>
+  <si>
+    <t>begin{</t>
+  </si>
+  <si>
+    <t>}end</t>
+  </si>
+  <si>
+    <t>begin{}end</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[12] , [7,2,4,3,11] , [8,5] ]</t>
+  </si>
+  <si>
+    <t>[18.5]</t>
+  </si>
+  <si>
+    <t>[841,27,500]</t>
+  </si>
+  <si>
+    <t>[27,500]</t>
+  </si>
+  <si>
+    <t>[500]</t>
+  </si>
+  <si>
+    <t>[18.5,456]</t>
+  </si>
+  <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>[18.5,456,12]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[7,2,4,3,11] , [8,5] ]</t>
+  </si>
+  <si>
+    <t>[7,2,4,3,11]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [[8,5] ]</t>
+  </si>
+  <si>
+    <t>[2,4,3,11]</t>
+  </si>
+  <si>
+    <t>[4,3,11]</t>
+  </si>
+  <si>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t>[8,5]</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>[18.5,456,12,5.4,6.5]</t>
+  </si>
+  <si>
+    <t>[18.5,456,12,5.4]</t>
+  </si>
+  <si>
+    <t>טענת יציאה היא אם que ריק</t>
+  </si>
+  <si>
+    <t>מטרת הפעולה היא ליצור טור של כל הממוצעים של כל התואים המלאים בque</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,16 +280,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,17 +309,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="44">
@@ -648,15 +806,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3006845-BE2E-407E-80E5-C2D89E814DCE}" name="Table1" displayName="Table1" ref="W23:AC31" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3006845-BE2E-407E-80E5-C2D89E814DCE}" name="Table1" displayName="Table1" ref="W23:AC31" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="W23:AC31" xr:uid="{2DD0A4C5-FE0E-46B2-A46F-209E14B3D584}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{BBC26616-07B1-4F89-836E-DE90DC98CC8D}" name="way in return " dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{A95CF8FA-116B-42BC-8D5C-2E9F840C2A7C}" name="way out return" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{7A3D3C2C-BF6B-4A8F-A31A-5443534D07E9}" name="x" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{D34B628F-6EFD-48DF-A704-C6301814E43C}" name="num" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{D8CB43B7-8F05-489E-95DE-929349D0DED9}" name="num %10== x" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{F7505246-5FD6-4722-A628-7D3EFFC93A49}" name="num == 0" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{BBC26616-07B1-4F89-836E-DE90DC98CC8D}" name="way in return " dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{A95CF8FA-116B-42BC-8D5C-2E9F840C2A7C}" name="way out return" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{7A3D3C2C-BF6B-4A8F-A31A-5443534D07E9}" name="x" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{D34B628F-6EFD-48DF-A704-C6301814E43C}" name="num" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{D8CB43B7-8F05-489E-95DE-929349D0DED9}" name="num %10== x" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{F7505246-5FD6-4722-A628-7D3EFFC93A49}" name="num == 0" dataDxfId="36"/>
     <tableColumn id="14" xr3:uid="{A1C468CF-44A2-490E-AB58-524D99142D38}" name="final - output" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -664,48 +822,48 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D2538C69-7DA0-46DE-80FF-21BB3D373552}" name="Table2" displayName="Table2" ref="W33:AC45" totalsRowShown="0" headerRowDxfId="26" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D2538C69-7DA0-46DE-80FF-21BB3D373552}" name="Table2" displayName="Table2" ref="W33:AC45" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="W33:AC45" xr:uid="{8BC88683-DB27-4003-AC36-DB5B0B7BED14}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F0003DB1-1D3F-4D29-B14C-5299BF5F8A43}" name="way in return " dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{D6AFACCB-5FFA-47FB-B8B3-723A9A8E5724}" name="way out return" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{18BF5EA2-7C4F-4D6D-A393-8C75C297A8B9}" name="a" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{FDDC3A04-9D7A-40D9-8DE2-061832C0FC20}" name="k" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{9ADF7E70-ED7F-4538-88BF-76C5B72F6D70}" name="k== a.length - 1" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{BD7C0992-8F68-4DBC-A2CF-BA7ABF692DF6}" name="FirstCheck(x, num / 10) " dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{3364A6E8-4967-41F4-B90A-6F4323EA117B}" name="final - output" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{F0003DB1-1D3F-4D29-B14C-5299BF5F8A43}" name="way in return " dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{D6AFACCB-5FFA-47FB-B8B3-723A9A8E5724}" name="way out return" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{18BF5EA2-7C4F-4D6D-A393-8C75C297A8B9}" name="a" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{FDDC3A04-9D7A-40D9-8DE2-061832C0FC20}" name="k" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{9ADF7E70-ED7F-4538-88BF-76C5B72F6D70}" name="k== a.length - 1" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{BD7C0992-8F68-4DBC-A2CF-BA7ABF692DF6}" name="FirstCheck(x, num / 10) " dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{3364A6E8-4967-41F4-B90A-6F4323EA117B}" name="final - output" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9BF24C51-FED9-4E38-ADF5-8E661701F830}" name="Table3" displayName="Table3" ref="N16:T22" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9BF24C51-FED9-4E38-ADF5-8E661701F830}" name="Table3" displayName="Table3" ref="N16:T22" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="N16:T22" xr:uid="{C74317DD-C71E-4A38-95BD-D76CCB7A557C}"/>
   <tableColumns count="7">
-    <tableColumn id="11" xr3:uid="{224729A1-A425-45DA-AC86-015AA03E6D95}" name="way in return " dataDxfId="25"/>
-    <tableColumn id="12" xr3:uid="{75709B9F-3A1F-48F0-B5EC-5E1C879C22C0}" name="way out return" dataDxfId="24"/>
-    <tableColumn id="1" xr3:uid="{A68A2E43-8A30-41BD-AC2B-77E7BD20559B}" name="n" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{1BCAAF84-F0F0-410F-924A-D3BB77E99C9C}" name="k" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{0CE9F502-FA61-47E3-B926-41575FFF455D}" name="n&lt;k" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{B990108A-5F9A-442E-ACCC-B0F568F80E75}" name="n == k" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{ACADF1A2-58F3-436E-BC79-3723BE6E01CF}" name="final output" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{224729A1-A425-45DA-AC86-015AA03E6D95}" name="way in return " dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{75709B9F-3A1F-48F0-B5EC-5E1C879C22C0}" name="way out return" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{A68A2E43-8A30-41BD-AC2B-77E7BD20559B}" name="n" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{1BCAAF84-F0F0-410F-924A-D3BB77E99C9C}" name="k" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{0CE9F502-FA61-47E3-B926-41575FFF455D}" name="n&lt;k" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{B990108A-5F9A-442E-ACCC-B0F568F80E75}" name="n == k" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{ACADF1A2-58F3-436E-BC79-3723BE6E01CF}" name="final output" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0B63A9F-E023-4A3F-B92B-E85C4580CB2C}" name="Table4" displayName="Table4" ref="N25:T35" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0B63A9F-E023-4A3F-B92B-E85C4580CB2C}" name="Table4" displayName="Table4" ref="N25:T35" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="N25:T35" xr:uid="{649EA836-B158-4501-B9B7-7A083E744ACF}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2F25F909-1893-454A-8351-6D88651B7E20}" name="way in return " dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{AC04ACCB-5B7F-4686-8DB7-1315E5C66C71}" name="way out return" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{C1310840-E364-484D-A35E-12B57D42F30B}" name="n" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{37E1B357-F03E-46CE-B08C-B9F9870F66FE}" name="k" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{26B622B7-E6DD-4675-9275-984E6A1990C7}" name="CheckDiv(n, k)" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{1F65596E-D8F6-43B3-B8CE-0CD52744DCB8}" name="k==1" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{6E83AF33-2EA9-4903-9951-26157DD7EFAD}" name="final output" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{2F25F909-1893-454A-8351-6D88651B7E20}" name="way in return " dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{AC04ACCB-5B7F-4686-8DB7-1315E5C66C71}" name="way out return" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{C1310840-E364-484D-A35E-12B57D42F30B}" name="n" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{37E1B357-F03E-46CE-B08C-B9F9870F66FE}" name="k" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{26B622B7-E6DD-4675-9275-984E6A1990C7}" name="CheckDiv(n, k)" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{1F65596E-D8F6-43B3-B8CE-0CD52744DCB8}" name="k==1" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{6E83AF33-2EA9-4903-9951-26157DD7EFAD}" name="final output" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -721,6 +879,24 @@
     <tableColumn id="4" xr3:uid="{1E3343C0-E197-4677-860A-AB52EEC39CA1}" name="n" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{8118E620-4F27-4D89-AACA-E0139106E1C8}" name="checkPrime(a[n],a[n-1])" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{B9ACBA1E-BA63-466D-9477-B2E73DAC4C6A}" name="output" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BB01DEAC-6FDE-4011-A9FC-4AB020ACC2D4}" name="Table6" displayName="Table6" ref="C8:K29" totalsRowShown="0">
+  <autoFilter ref="C8:K29" xr:uid="{29C5FCF8-1622-45B2-B63B-608DB71D7C46}"/>
+  <tableColumns count="9">
+    <tableColumn id="12" xr3:uid="{40ECCEC9-9729-45FC-8229-A3D6DD4319B8}" name="while status"/>
+    <tableColumn id="1" xr3:uid="{280BCE6A-82AD-4068-BAC3-66A7D5FC8853}" name="que"/>
+    <tableColumn id="2" xr3:uid="{3727D287-B678-4EC5-89EE-4CFE0DEDDDEB}" name="q"/>
+    <tableColumn id="3" xr3:uid="{F21A2BB8-6AB1-4E2B-AEC3-08E2B67D8998}" name="sum"/>
+    <tableColumn id="4" xr3:uid="{B1759783-E2E1-4D38-B90A-1587B196AF6B}" name="count"/>
+    <tableColumn id="5" xr3:uid="{65D8BB89-90EB-42EB-966C-D780E9016C1A}" name="! q.isEmpty()"/>
+    <tableColumn id="6" xr3:uid="{C7708AD1-7F88-4AE7-A264-11E4FBB9D8EF}" name="count != 0"/>
+    <tableColumn id="9" xr3:uid="{706E81B3-135B-435E-98FB-BB866893FD23}" name="qNew"/>
+    <tableColumn id="7" xr3:uid="{926815C9-5555-4980-B3E3-A3B12C424253}" name="return"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1623,7 +1799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1092726-912B-4CD0-8E09-A0B8E890167F}">
   <dimension ref="N16:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="G34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="T48" sqref="T48"/>
     </sheetView>
   </sheetViews>
@@ -2538,4 +2714,694 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C117AC-A4C3-4AB2-B317-160FFA267934}">
+  <dimension ref="C3:K34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="14" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="3:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13">
+        <v>74</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16">
+        <v>841</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17">
+        <v>868</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18">
+        <v>1368</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25">
+        <v>16</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" t="s">
+        <v>71</v>
+      </c>
+      <c r="K29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/tracking_tables.xlsx
+++ b/tracking_tables.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itayk\Documents\dev\c#\Josef_Baron\program-design-h.w-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CE19F9-40A2-4F38-BB40-93D4E6B264EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331B9426-E0E0-4FE5-95DE-6E6BE1C6F743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="88">
   <si>
     <t>x</t>
   </si>
@@ -260,6 +261,45 @@
   </si>
   <si>
     <t>מטרת הפעולה היא ליצור טור של כל הממוצעים של כל התואים המלאים בque</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Trouble(double a,double b)</t>
+  </si>
+  <si>
+    <t>Touble(5,5) = 5</t>
+  </si>
+  <si>
+    <t>Trouble(4,4) = 4</t>
+  </si>
+  <si>
+    <t>Touble(7,3) = 5</t>
+  </si>
+  <si>
+    <t>Trouble(5,4)  = 4.5</t>
+  </si>
+  <si>
+    <t>Trouble(1,4) = 4</t>
+  </si>
+  <si>
+    <t>Touble(2,5) = 4</t>
+  </si>
+  <si>
+    <t>Trouble(2,2) = 4</t>
+  </si>
+  <si>
+    <t>Trouble(4,2) = 3</t>
   </si>
 </sst>
 </file>
@@ -341,7 +381,49 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="58">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -806,79 +888,79 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3006845-BE2E-407E-80E5-C2D89E814DCE}" name="Table1" displayName="Table1" ref="W23:AC31" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3006845-BE2E-407E-80E5-C2D89E814DCE}" name="Table1" displayName="Table1" ref="W23:AC31" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
   <autoFilter ref="W23:AC31" xr:uid="{2DD0A4C5-FE0E-46B2-A46F-209E14B3D584}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{BBC26616-07B1-4F89-836E-DE90DC98CC8D}" name="way in return " dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{A95CF8FA-116B-42BC-8D5C-2E9F840C2A7C}" name="way out return" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{7A3D3C2C-BF6B-4A8F-A31A-5443534D07E9}" name="x" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{D34B628F-6EFD-48DF-A704-C6301814E43C}" name="num" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{D8CB43B7-8F05-489E-95DE-929349D0DED9}" name="num %10== x" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{F7505246-5FD6-4722-A628-7D3EFFC93A49}" name="num == 0" dataDxfId="36"/>
-    <tableColumn id="14" xr3:uid="{A1C468CF-44A2-490E-AB58-524D99142D38}" name="final - output" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{BBC26616-07B1-4F89-836E-DE90DC98CC8D}" name="way in return " dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{A95CF8FA-116B-42BC-8D5C-2E9F840C2A7C}" name="way out return" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{7A3D3C2C-BF6B-4A8F-A31A-5443534D07E9}" name="x" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{D34B628F-6EFD-48DF-A704-C6301814E43C}" name="num" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{D8CB43B7-8F05-489E-95DE-929349D0DED9}" name="num %10== x" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{F7505246-5FD6-4722-A628-7D3EFFC93A49}" name="num == 0" dataDxfId="50"/>
+    <tableColumn id="14" xr3:uid="{A1C468CF-44A2-490E-AB58-524D99142D38}" name="final - output" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D2538C69-7DA0-46DE-80FF-21BB3D373552}" name="Table2" displayName="Table2" ref="W33:AC45" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D2538C69-7DA0-46DE-80FF-21BB3D373552}" name="Table2" displayName="Table2" ref="W33:AC45" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="W33:AC45" xr:uid="{8BC88683-DB27-4003-AC36-DB5B0B7BED14}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F0003DB1-1D3F-4D29-B14C-5299BF5F8A43}" name="way in return " dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{D6AFACCB-5FFA-47FB-B8B3-723A9A8E5724}" name="way out return" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{18BF5EA2-7C4F-4D6D-A393-8C75C297A8B9}" name="a" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{FDDC3A04-9D7A-40D9-8DE2-061832C0FC20}" name="k" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{9ADF7E70-ED7F-4538-88BF-76C5B72F6D70}" name="k== a.length - 1" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{BD7C0992-8F68-4DBC-A2CF-BA7ABF692DF6}" name="FirstCheck(x, num / 10) " dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{3364A6E8-4967-41F4-B90A-6F4323EA117B}" name="final - output" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{F0003DB1-1D3F-4D29-B14C-5299BF5F8A43}" name="way in return " dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{D6AFACCB-5FFA-47FB-B8B3-723A9A8E5724}" name="way out return" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{18BF5EA2-7C4F-4D6D-A393-8C75C297A8B9}" name="a" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{FDDC3A04-9D7A-40D9-8DE2-061832C0FC20}" name="k" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{9ADF7E70-ED7F-4538-88BF-76C5B72F6D70}" name="k== a.length - 1" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{BD7C0992-8F68-4DBC-A2CF-BA7ABF692DF6}" name="FirstCheck(x, num / 10) " dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{3364A6E8-4967-41F4-B90A-6F4323EA117B}" name="final - output" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9BF24C51-FED9-4E38-ADF5-8E661701F830}" name="Table3" displayName="Table3" ref="N16:T22" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9BF24C51-FED9-4E38-ADF5-8E661701F830}" name="Table3" displayName="Table3" ref="N16:T22" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="N16:T22" xr:uid="{C74317DD-C71E-4A38-95BD-D76CCB7A557C}"/>
   <tableColumns count="7">
-    <tableColumn id="11" xr3:uid="{224729A1-A425-45DA-AC86-015AA03E6D95}" name="way in return " dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{75709B9F-3A1F-48F0-B5EC-5E1C879C22C0}" name="way out return" dataDxfId="22"/>
-    <tableColumn id="1" xr3:uid="{A68A2E43-8A30-41BD-AC2B-77E7BD20559B}" name="n" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{1BCAAF84-F0F0-410F-924A-D3BB77E99C9C}" name="k" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{0CE9F502-FA61-47E3-B926-41575FFF455D}" name="n&lt;k" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{B990108A-5F9A-442E-ACCC-B0F568F80E75}" name="n == k" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{ACADF1A2-58F3-436E-BC79-3723BE6E01CF}" name="final output" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{224729A1-A425-45DA-AC86-015AA03E6D95}" name="way in return " dataDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{75709B9F-3A1F-48F0-B5EC-5E1C879C22C0}" name="way out return" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{A68A2E43-8A30-41BD-AC2B-77E7BD20559B}" name="n" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{1BCAAF84-F0F0-410F-924A-D3BB77E99C9C}" name="k" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{0CE9F502-FA61-47E3-B926-41575FFF455D}" name="n&lt;k" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{B990108A-5F9A-442E-ACCC-B0F568F80E75}" name="n == k" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{ACADF1A2-58F3-436E-BC79-3723BE6E01CF}" name="final output" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0B63A9F-E023-4A3F-B92B-E85C4580CB2C}" name="Table4" displayName="Table4" ref="N25:T35" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0B63A9F-E023-4A3F-B92B-E85C4580CB2C}" name="Table4" displayName="Table4" ref="N25:T35" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="N25:T35" xr:uid="{649EA836-B158-4501-B9B7-7A083E744ACF}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2F25F909-1893-454A-8351-6D88651B7E20}" name="way in return " dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{AC04ACCB-5B7F-4686-8DB7-1315E5C66C71}" name="way out return" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{C1310840-E364-484D-A35E-12B57D42F30B}" name="n" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{37E1B357-F03E-46CE-B08C-B9F9870F66FE}" name="k" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{26B622B7-E6DD-4675-9275-984E6A1990C7}" name="CheckDiv(n, k)" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{1F65596E-D8F6-43B3-B8CE-0CD52744DCB8}" name="k==1" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{6E83AF33-2EA9-4903-9951-26157DD7EFAD}" name="final output" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{2F25F909-1893-454A-8351-6D88651B7E20}" name="way in return " dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{AC04ACCB-5B7F-4686-8DB7-1315E5C66C71}" name="way out return" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{C1310840-E364-484D-A35E-12B57D42F30B}" name="n" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{37E1B357-F03E-46CE-B08C-B9F9870F66FE}" name="k" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{26B622B7-E6DD-4675-9275-984E6A1990C7}" name="CheckDiv(n, k)" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{1F65596E-D8F6-43B3-B8CE-0CD52744DCB8}" name="k==1" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{6E83AF33-2EA9-4903-9951-26157DD7EFAD}" name="final output" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7769908A-CD5B-4B7B-9A64-2954150DDD87}" name="Table46" displayName="Table46" ref="N37:S59" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7769908A-CD5B-4B7B-9A64-2954150DDD87}" name="Table46" displayName="Table46" ref="N37:S59" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="N37:S59" xr:uid="{3C309C2F-5B4F-4878-ADB2-2427CB4B7499}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{9C32E65E-0132-4756-94AA-01C56A0F9C78}" name="way in return " dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{A723A41F-A1A7-48FF-ACFE-6A1752CA10BA}" name="way out return" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{4F5048BF-B7F4-47EF-82CE-9701E764E20B}" name="a[n]" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{1E3343C0-E197-4677-860A-AB52EEC39CA1}" name="n" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{8118E620-4F27-4D89-AACA-E0139106E1C8}" name="checkPrime(a[n],a[n-1])" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{B9ACBA1E-BA63-466D-9477-B2E73DAC4C6A}" name="output" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9C32E65E-0132-4756-94AA-01C56A0F9C78}" name="way in return " dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{A723A41F-A1A7-48FF-ACFE-6A1752CA10BA}" name="way out return" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{4F5048BF-B7F4-47EF-82CE-9701E764E20B}" name="a[n]" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{1E3343C0-E197-4677-860A-AB52EEC39CA1}" name="n" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{8118E620-4F27-4D89-AACA-E0139106E1C8}" name="checkPrime(a[n],a[n-1])" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{B9ACBA1E-BA63-466D-9477-B2E73DAC4C6A}" name="output" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -897,6 +979,34 @@
     <tableColumn id="6" xr3:uid="{C7708AD1-7F88-4AE7-A264-11E4FBB9D8EF}" name="count != 0"/>
     <tableColumn id="9" xr3:uid="{706E81B3-135B-435E-98FB-BB866893FD23}" name="qNew"/>
     <tableColumn id="7" xr3:uid="{926815C9-5555-4980-B3E3-A3B12C424253}" name="return"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{883871A9-C35C-4FFE-B778-BDFCA231A821}" name="Table7" displayName="Table7" ref="C4:G6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="C4:G6" xr:uid="{6BA2D4F5-E9D1-4B33-A6AE-C9135DF9965E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{8B0BED84-AD13-4A68-BB81-527A971CB6BF}" name="t1" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{BA08C68B-4871-40C2-9BB5-2AC159B928DF}" name="t2" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{70C40710-63A1-4E4D-99ED-B3C738D6B54E}" name="a" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{64337FD1-DCDE-45CF-9724-9437FCF14F3E}" name="b" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{DF980D19-E637-40AA-8308-EA983E7FAB6F}" name="Trouble(double a,double b)" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D2157B8E-EEA4-4C33-B2EF-9AB4493F665A}" name="Table79" displayName="Table79" ref="C10:G16" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="C10:G16" xr:uid="{479E7F4B-5FDC-4F73-8A71-EB30F7673D97}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{4A5DA8AD-0808-412D-9DC7-60902873883E}" name="t1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{FD1A195A-A68D-4659-A62A-BA955088E688}" name="t2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{634BC92B-B2EB-4017-812C-298EF548AC10}" name="a" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{2B0E9A79-500D-4E7D-AC82-0418F354A1ED}" name="b" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{C1A73EEB-18D1-44C9-939A-175A9C3751AC}" name="Trouble(double a,double b)" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2720,7 +2830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C117AC-A4C3-4AB2-B317-160FFA267934}">
   <dimension ref="C3:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
@@ -3404,4 +3514,201 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23821811-D1CA-4B1B-A46E-E6DE4326BA50}">
+  <dimension ref="C4:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="4" width="15.7109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/tracking_tables.xlsx
+++ b/tracking_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itayk\Documents\dev\c#\Josef_Baron\program-design-h.w-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331B9426-E0E0-4FE5-95DE-6E6BE1C6F743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0482AB03-8041-4DE6-9983-362FF5491447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="88">
   <si>
     <t>x</t>
   </si>
@@ -272,9 +272,6 @@
     <t>b</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>Trouble(double a,double b)</t>
   </si>
   <si>
@@ -300,6 +297,9 @@
   </si>
   <si>
     <t>Trouble(4,2) = 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מטרת הפעולה היא למצוא את הממוצע של המספרים </t>
   </si>
 </sst>
 </file>
@@ -3518,10 +3518,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23821811-D1CA-4B1B-A46E-E6DE4326BA50}">
-  <dimension ref="C4:G16"/>
+  <dimension ref="C4:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3548,15 +3548,15 @@
         <v>77</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -3565,15 +3565,15 @@
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -3599,15 +3599,15 @@
         <v>77</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -3621,7 +3621,7 @@
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>7</v>
@@ -3658,7 +3658,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -3684,15 +3684,15 @@
         <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="E16" s="1">
         <v>4</v>
@@ -3702,6 +3702,11 @@
       </c>
       <c r="G16" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/tracking_tables.xlsx
+++ b/tracking_tables.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itayk\Documents\dev\c#\Josef_Baron\program-design-h.w-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0482AB03-8041-4DE6-9983-362FF5491447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB52201-0AD7-4B24-8018-012166ED526A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="101">
   <si>
     <t>x</t>
   </si>
@@ -300,13 +302,73 @@
   </si>
   <si>
     <t xml:space="preserve">מטרת הפעולה היא למצוא את הממוצע של המספרים </t>
+  </si>
+  <si>
+    <t>הפעולה מסדרת את התור מהקטן לגדול</t>
+  </si>
+  <si>
+    <t>מספר הקריאות לא יהיה זהה משום שניתן לתת סדר כזה כך שאחד התורים לא יגמר ישר ואז  מספר הקריאות יהיה גדול יותר</t>
+  </si>
+  <si>
+    <t>class supermarket</t>
+  </si>
+  <si>
+    <t>properties</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>class Line</t>
+  </si>
+  <si>
+    <t>Line[] lines</t>
+  </si>
+  <si>
+    <t>methods</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>bool Open</t>
+  </si>
+  <si>
+    <t>int Length</t>
+  </si>
+  <si>
+    <t>Queue&lt;string&gt; Clients</t>
+  </si>
+  <si>
+    <t>public void AddToSuperMarketQuue(string Name)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +385,24 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -369,13 +449,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -887,6 +969,54 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76194</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{369A0B7A-0A65-4A0A-989E-E25ABE39E796}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="21443" t="5320" r="9303" b="3111"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4548192" y="395282"/>
+          <a:ext cx="3686170" cy="6724654"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C3006845-BE2E-407E-80E5-C2D89E814DCE}" name="Table1" displayName="Table1" ref="W23:AC31" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
   <autoFilter ref="W23:AC31" xr:uid="{2DD0A4C5-FE0E-46B2-A46F-209E14B3D584}"/>
@@ -985,28 +1115,28 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{883871A9-C35C-4FFE-B778-BDFCA231A821}" name="Table7" displayName="Table7" ref="C4:G6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{883871A9-C35C-4FFE-B778-BDFCA231A821}" name="Table7" displayName="Table7" ref="C4:G6" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="C4:G6" xr:uid="{6BA2D4F5-E9D1-4B33-A6AE-C9135DF9965E}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8B0BED84-AD13-4A68-BB81-527A971CB6BF}" name="t1" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{BA08C68B-4871-40C2-9BB5-2AC159B928DF}" name="t2" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{70C40710-63A1-4E4D-99ED-B3C738D6B54E}" name="a" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{64337FD1-DCDE-45CF-9724-9437FCF14F3E}" name="b" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{DF980D19-E637-40AA-8308-EA983E7FAB6F}" name="Trouble(double a,double b)" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{8B0BED84-AD13-4A68-BB81-527A971CB6BF}" name="t1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{BA08C68B-4871-40C2-9BB5-2AC159B928DF}" name="t2" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{70C40710-63A1-4E4D-99ED-B3C738D6B54E}" name="a" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{64337FD1-DCDE-45CF-9724-9437FCF14F3E}" name="b" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{DF980D19-E637-40AA-8308-EA983E7FAB6F}" name="Trouble(double a,double b)" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D2157B8E-EEA4-4C33-B2EF-9AB4493F665A}" name="Table79" displayName="Table79" ref="C10:G16" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D2157B8E-EEA4-4C33-B2EF-9AB4493F665A}" name="Table79" displayName="Table79" ref="C10:G16" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="C10:G16" xr:uid="{479E7F4B-5FDC-4F73-8A71-EB30F7673D97}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4A5DA8AD-0808-412D-9DC7-60902873883E}" name="t1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{FD1A195A-A68D-4659-A62A-BA955088E688}" name="t2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{634BC92B-B2EB-4017-812C-298EF548AC10}" name="a" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{2B0E9A79-500D-4E7D-AC82-0418F354A1ED}" name="b" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{C1A73EEB-18D1-44C9-939A-175A9C3751AC}" name="Trouble(double a,double b)" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{4A5DA8AD-0808-412D-9DC7-60902873883E}" name="t1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{FD1A195A-A68D-4659-A62A-BA955088E688}" name="t2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{634BC92B-B2EB-4017-812C-298EF548AC10}" name="a" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{2B0E9A79-500D-4E7D-AC82-0418F354A1ED}" name="b" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{C1A73EEB-18D1-44C9-939A-175A9C3751AC}" name="Trouble(double a,double b)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3520,8 +3650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23821811-D1CA-4B1B-A46E-E6DE4326BA50}">
   <dimension ref="C4:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3716,4 +3846,100 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05A94D7-43A8-4CE0-ACDE-1AE0BD955E9E}">
+  <dimension ref="U18:AB20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="18" spans="21:28" x14ac:dyDescent="0.25">
+      <c r="U18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="21:28" x14ac:dyDescent="0.25">
+      <c r="AB20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E28EE2C-8B6F-4878-BE47-6DA2559BB79F}">
+  <dimension ref="J7:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="11" width="40.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="10:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tracking_tables.xlsx
+++ b/tracking_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itayk\Documents\dev\c#\Josef_Baron\program-design-h.w-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB52201-0AD7-4B24-8018-012166ED526A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775A7E7C-489A-42A1-B4F7-687F87BC2FF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -970,6 +970,55 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>54784</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E62C803-7173-4E89-A3C1-4A277388D973}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057275" y="57150"/>
+          <a:ext cx="6105525" cy="4950634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3648,10 +3697,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23821811-D1CA-4B1B-A46E-E6DE4326BA50}">
-  <dimension ref="C4:G20"/>
+  <dimension ref="C4:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3834,16 +3883,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="1" t="s">
+    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3878,7 +3928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E28EE2C-8B6F-4878-BE47-6DA2559BB79F}">
   <dimension ref="J7:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
